--- a/Capitulo999_INSTITUTO/Taller2_2025/Proyecto2doCuatrimestreTaller2/Proyectos_Taller2_Anio2025.xlsx
+++ b/Capitulo999_INSTITUTO/Taller2_2025/Proyecto2doCuatrimestreTaller2/Proyectos_Taller2_Anio2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\00_ENGITHUB\Modulo02_JavaScript\Capitulo999_INSTITUTO\Taller2_2025\Proyecto2doCuatrimestreTaller2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E425D5BE-548D-45A4-BACF-D1A977026391}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FBFEFF7-6EA7-4E7C-87B7-2B1D65D857CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="155">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -830,11 +830,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2082,7 +2082,7 @@
   <dimension ref="B1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2096,13 +2096,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="19" t="s">
         <v>153</v>
       </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
     </row>
     <row r="2" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2" s="15" t="s">
@@ -2120,7 +2120,7 @@
       <c r="F2" s="15" t="s">
         <v>151</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="17" t="s">
         <v>152</v>
       </c>
     </row>
@@ -2220,7 +2220,7 @@
       <c r="F7" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="19" t="s">
+      <c r="G7" s="18" t="s">
         <v>154</v>
       </c>
     </row>
@@ -2240,6 +2240,9 @@
       <c r="F8" t="s">
         <v>14</v>
       </c>
+      <c r="G8" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="9" spans="2:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="B9">
@@ -2277,6 +2280,9 @@
       <c r="F10" t="s">
         <v>14</v>
       </c>
+      <c r="G10" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="11" spans="2:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="B11">
@@ -2334,6 +2340,9 @@
       <c r="F13" t="s">
         <v>14</v>
       </c>
+      <c r="G13" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B14">
@@ -2351,6 +2360,9 @@
       <c r="F14" t="s">
         <v>14</v>
       </c>
+      <c r="G14" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B15">
@@ -2368,6 +2380,9 @@
       <c r="F15" t="s">
         <v>14</v>
       </c>
+      <c r="G15" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="16" spans="2:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="B16">
@@ -2536,6 +2551,9 @@
       <c r="F24" t="s">
         <v>14</v>
       </c>
+      <c r="G24" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="25" spans="2:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="B25">
@@ -2573,6 +2591,9 @@
       <c r="F26" t="s">
         <v>14</v>
       </c>
+      <c r="G26" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B27">
@@ -2607,6 +2628,9 @@
       <c r="F28" t="s">
         <v>14</v>
       </c>
+      <c r="G28" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B29">
@@ -2623,6 +2647,9 @@
       </c>
       <c r="F29" t="s">
         <v>14</v>
+      </c>
+      <c r="G29" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Capitulo999_INSTITUTO/Taller2_2025/Proyecto2doCuatrimestreTaller2/Proyectos_Taller2_Anio2025.xlsx
+++ b/Capitulo999_INSTITUTO/Taller2_2025/Proyecto2doCuatrimestreTaller2/Proyectos_Taller2_Anio2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\00_ENGITHUB\Modulo02_JavaScript\Capitulo999_INSTITUTO\Taller2_2025\Proyecto2doCuatrimestreTaller2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FBFEFF7-6EA7-4E7C-87B7-2B1D65D857CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D5C0329-35F3-47A4-99E0-2B10EFD5A788}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="155">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -2078,11 +2078,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55372B64-6944-4D56-B155-2A0C1598A9D8}">
-  <sheetPr filterMode="1"/>
   <dimension ref="B1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2124,7 +2123,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="3" spans="2:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3">
         <v>1</v>
       </c>
@@ -2144,7 +2143,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="2:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4">
         <v>2</v>
       </c>
@@ -2164,7 +2163,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="2:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5">
         <v>3</v>
       </c>
@@ -2184,7 +2183,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="2:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6">
         <v>4</v>
       </c>
@@ -2204,7 +2203,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="2:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B7">
         <v>5</v>
       </c>
@@ -2244,7 +2243,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="2:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B9">
         <v>7</v>
       </c>
@@ -2284,7 +2283,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="2:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B11">
         <v>9</v>
       </c>
@@ -2304,7 +2303,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="2:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B12">
         <v>10</v>
       </c>
@@ -2384,7 +2383,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="2:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B16">
         <v>14</v>
       </c>
@@ -2404,7 +2403,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="2:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B17">
         <v>15</v>
       </c>
@@ -2424,7 +2423,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="2:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B18">
         <v>16</v>
       </c>
@@ -2477,6 +2476,9 @@
       <c r="F20" t="s">
         <v>14</v>
       </c>
+      <c r="G20" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B21">
@@ -2494,8 +2496,11 @@
       <c r="F21" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="22" spans="2:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B22">
         <v>20</v>
       </c>
@@ -2515,7 +2520,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="2:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B23">
         <v>21</v>
       </c>
@@ -2555,7 +2560,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="2:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B25">
         <v>23</v>
       </c>
@@ -2653,11 +2658,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B2:G29" xr:uid="{55372B64-6944-4D56-B155-2A0C1598A9D8}">
-    <filterColumn colId="5">
-      <filters blank="1"/>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="B2:G29" xr:uid="{55372B64-6944-4D56-B155-2A0C1598A9D8}"/>
   <mergeCells count="1">
     <mergeCell ref="B1:F1"/>
   </mergeCells>

--- a/Capitulo999_INSTITUTO/Taller2_2025/Proyecto2doCuatrimestreTaller2/Proyectos_Taller2_Anio2025.xlsx
+++ b/Capitulo999_INSTITUTO/Taller2_2025/Proyecto2doCuatrimestreTaller2/Proyectos_Taller2_Anio2025.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\00_ENGITHUB\Modulo02_JavaScript\Capitulo999_INSTITUTO\Taller2_2025\Proyecto2doCuatrimestreTaller2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel M\Desktop\Modulo02_JavaScript\Capitulo999_INSTITUTO\Taller2_2025\Proyecto2doCuatrimestreTaller2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D5C0329-35F3-47A4-99E0-2B10EFD5A788}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Respuestas de formulario 1" sheetId="1" r:id="rId1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="163">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -525,19 +524,43 @@
     <t>ESTADO</t>
   </si>
   <si>
-    <t>CONTROL 1</t>
-  </si>
-  <si>
     <t>ALUMNOS - PROYECTOS</t>
   </si>
   <si>
     <t>AWAIT</t>
+  </si>
+  <si>
+    <t>CONTROL 10_09_2025</t>
+  </si>
+  <si>
+    <t>AUSENTE</t>
+  </si>
+  <si>
+    <t>CONTROL 17_09_2025</t>
+  </si>
+  <si>
+    <t>BIEN. EXCELENTE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">END POINT </t>
+  </si>
+  <si>
+    <t>Termino de definir proyecto</t>
+  </si>
+  <si>
+    <t>Los EndPoint Terminados</t>
+  </si>
+  <si>
+    <t>Definiendo Modelo Relacional</t>
+  </si>
+  <si>
+    <t>Definición del E.R. Final</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="dd\.mm\.yyyy"/>
     <numFmt numFmtId="165" formatCode="m/d/yyyy\ h:mm:ss"/>
@@ -579,7 +602,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -607,6 +630,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFAAE571"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -788,7 +817,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -835,6 +864,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -843,7 +873,6 @@
     <dxf>
       <font>
         <b/>
-        <family val="2"/>
       </font>
       <fill>
         <patternFill>
@@ -878,7 +907,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1">
-    <tableStyle name="Respuestas de formulario 1-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="Respuestas de formulario 1-style" pivot="0" count="3">
       <tableStyleElement type="headerRow" dxfId="3"/>
       <tableStyleElement type="firstRowStripe" dxfId="2"/>
       <tableStyleElement type="secondRowStripe" dxfId="1"/>
@@ -896,17 +925,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses" displayName="Form_Responses" ref="B2:J29" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Form_Responses" displayName="Form_Responses" ref="B2:J29" headerRowDxfId="0">
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Marca temporal"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Dirección de correo electrónico"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="APELLIDO Y NOMBRES"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="TITULO DE SU PROPUESTA"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="DESCRIPCIÓN DEL PROYECTO"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="CORREO ELECTRONICO (PERSONAL)"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="CORREO ELECTRONICO (INSTITUTO)"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="TELEFONO CELULAR - EJEMPLO 3834402862"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Columna 5"/>
+    <tableColumn id="1" name="Marca temporal"/>
+    <tableColumn id="2" name="Dirección de correo electrónico"/>
+    <tableColumn id="3" name="APELLIDO Y NOMBRES"/>
+    <tableColumn id="4" name="TITULO DE SU PROPUESTA"/>
+    <tableColumn id="5" name="DESCRIPCIÓN DEL PROYECTO"/>
+    <tableColumn id="6" name="CORREO ELECTRONICO (PERSONAL)"/>
+    <tableColumn id="7" name="CORREO ELECTRONICO (INSTITUTO)"/>
+    <tableColumn id="8" name="TELEFONO CELULAR - EJEMPLO 3834402862"/>
+    <tableColumn id="9" name="Columna 5"/>
   </tableColumns>
   <tableStyleInfo name="Respuestas de formulario 1-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1109,7 +1138,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -2068,7 +2097,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="K2:K3" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="K2:K3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
@@ -2077,11 +2106,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55372B64-6944-4D56-B155-2A0C1598A9D8}">
-  <dimension ref="B1:G29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="E8" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2091,19 +2120,20 @@
     <col min="4" max="4" width="78.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="44.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.5703125" customWidth="1"/>
+    <col min="8" max="8" width="20.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B1" s="19" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C1" s="19"/>
       <c r="D1" s="19"/>
       <c r="E1" s="19"/>
       <c r="F1" s="19"/>
     </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B2" s="15" t="s">
         <v>150</v>
       </c>
@@ -2120,10 +2150,13 @@
         <v>151</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
+        <v>154</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B3">
         <v>1</v>
       </c>
@@ -2142,8 +2175,11 @@
       <c r="G3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B4">
         <v>2</v>
       </c>
@@ -2163,7 +2199,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B5">
         <v>3</v>
       </c>
@@ -2183,7 +2219,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B6">
         <v>4</v>
       </c>
@@ -2202,8 +2238,11 @@
       <c r="G6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H6" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B7">
         <v>5</v>
       </c>
@@ -2220,10 +2259,13 @@
         <v>14</v>
       </c>
       <c r="G7" s="18" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
+        <v>153</v>
+      </c>
+      <c r="H7" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B8">
         <v>6</v>
       </c>
@@ -2242,8 +2284,11 @@
       <c r="G8" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H8" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B9">
         <v>7</v>
       </c>
@@ -2263,7 +2308,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B10">
         <v>8</v>
       </c>
@@ -2283,7 +2328,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B11">
         <v>9</v>
       </c>
@@ -2303,7 +2348,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B12">
         <v>10</v>
       </c>
@@ -2323,7 +2368,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B13">
         <v>11</v>
       </c>
@@ -2342,8 +2387,11 @@
       <c r="G13" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H13" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B14">
         <v>12</v>
       </c>
@@ -2362,8 +2410,11 @@
       <c r="G14" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H14" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B15">
         <v>13</v>
       </c>
@@ -2383,7 +2434,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B16">
         <v>14</v>
       </c>
@@ -2402,8 +2453,11 @@
       <c r="G16" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H16" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B17">
         <v>15</v>
       </c>
@@ -2423,7 +2477,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B18">
         <v>16</v>
       </c>
@@ -2443,7 +2497,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B19">
         <v>17</v>
       </c>
@@ -2460,7 +2514,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B20">
         <v>18</v>
       </c>
@@ -2479,8 +2533,11 @@
       <c r="G20" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H20" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B21">
         <v>19</v>
       </c>
@@ -2499,8 +2556,11 @@
       <c r="G21" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H21" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B22">
         <v>20</v>
       </c>
@@ -2520,7 +2580,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B23">
         <v>21</v>
       </c>
@@ -2539,8 +2599,11 @@
       <c r="G23" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H23" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B24">
         <v>22</v>
       </c>
@@ -2559,8 +2622,11 @@
       <c r="G24" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H24" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B25">
         <v>23</v>
       </c>
@@ -2579,8 +2645,11 @@
       <c r="G25" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H25" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B26">
         <v>24</v>
       </c>
@@ -2600,7 +2669,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B27">
         <v>25</v>
       </c>
@@ -2616,8 +2685,11 @@
       <c r="F27" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H27" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B28">
         <v>26</v>
       </c>
@@ -2637,7 +2709,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B29">
         <v>27</v>
       </c>
@@ -2656,9 +2728,12 @@
       <c r="G29" t="s">
         <v>15</v>
       </c>
+      <c r="H29" t="s">
+        <v>159</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="B2:G29" xr:uid="{55372B64-6944-4D56-B155-2A0C1598A9D8}"/>
+  <autoFilter ref="B2:G29"/>
   <mergeCells count="1">
     <mergeCell ref="B1:F1"/>
   </mergeCells>
@@ -2667,7 +2742,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D778700A-CBF8-476F-8F43-B2CAD9F102C1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/Capitulo999_INSTITUTO/Taller2_2025/Proyecto2doCuatrimestreTaller2/Proyectos_Taller2_Anio2025.xlsx
+++ b/Capitulo999_INSTITUTO/Taller2_2025/Proyecto2doCuatrimestreTaller2/Proyectos_Taller2_Anio2025.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel M\Desktop\Modulo02_JavaScript\Capitulo999_INSTITUTO\Taller2_2025\Proyecto2doCuatrimestreTaller2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\00_ENGITHUB\Modulo02_JavaScript\Capitulo999_INSTITUTO\Taller2_2025\Proyecto2doCuatrimestreTaller2\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5401DF7D-6266-4CF7-90F9-9A50D2B57C18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Respuestas de formulario 1" sheetId="1" r:id="rId1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="163">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -560,7 +561,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="dd\.mm\.yyyy"/>
     <numFmt numFmtId="165" formatCode="m/d/yyyy\ h:mm:ss"/>
@@ -861,10 +862,10 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -907,7 +908,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1">
-    <tableStyle name="Respuestas de formulario 1-style" pivot="0" count="3">
+    <tableStyle name="Respuestas de formulario 1-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="headerRow" dxfId="3"/>
       <tableStyleElement type="firstRowStripe" dxfId="2"/>
       <tableStyleElement type="secondRowStripe" dxfId="1"/>
@@ -925,17 +926,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Form_Responses" displayName="Form_Responses" ref="B2:J29" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses" displayName="Form_Responses" ref="B2:J29" headerRowDxfId="0">
   <tableColumns count="9">
-    <tableColumn id="1" name="Marca temporal"/>
-    <tableColumn id="2" name="Dirección de correo electrónico"/>
-    <tableColumn id="3" name="APELLIDO Y NOMBRES"/>
-    <tableColumn id="4" name="TITULO DE SU PROPUESTA"/>
-    <tableColumn id="5" name="DESCRIPCIÓN DEL PROYECTO"/>
-    <tableColumn id="6" name="CORREO ELECTRONICO (PERSONAL)"/>
-    <tableColumn id="7" name="CORREO ELECTRONICO (INSTITUTO)"/>
-    <tableColumn id="8" name="TELEFONO CELULAR - EJEMPLO 3834402862"/>
-    <tableColumn id="9" name="Columna 5"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Marca temporal"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Dirección de correo electrónico"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="APELLIDO Y NOMBRES"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="TITULO DE SU PROPUESTA"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="DESCRIPCIÓN DEL PROYECTO"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="CORREO ELECTRONICO (PERSONAL)"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="CORREO ELECTRONICO (INSTITUTO)"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="TELEFONO CELULAR - EJEMPLO 3834402862"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Columna 5"/>
   </tableColumns>
   <tableStyleInfo name="Respuestas de formulario 1-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1138,7 +1139,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -2097,7 +2098,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="K2:K3"/>
+  <autoFilter ref="K2:K3" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
@@ -2106,11 +2107,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E8" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2125,13 +2126,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="20" t="s">
         <v>152</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
     </row>
     <row r="2" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B2" s="15" t="s">
@@ -2152,7 +2153,7 @@
       <c r="G2" s="17" t="s">
         <v>154</v>
       </c>
-      <c r="H2" s="20" t="s">
+      <c r="H2" s="19" t="s">
         <v>156</v>
       </c>
     </row>
@@ -2198,6 +2199,9 @@
       <c r="G4" t="s">
         <v>15</v>
       </c>
+      <c r="H4" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B5">
@@ -2347,6 +2351,9 @@
       <c r="G11" t="s">
         <v>15</v>
       </c>
+      <c r="H11" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B12">
@@ -2733,7 +2740,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B2:G29"/>
+  <autoFilter ref="B2:G29" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <mergeCells count="1">
     <mergeCell ref="B1:F1"/>
   </mergeCells>
@@ -2742,7 +2749,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/Capitulo999_INSTITUTO/Taller2_2025/Proyecto2doCuatrimestreTaller2/Proyectos_Taller2_Anio2025.xlsx
+++ b/Capitulo999_INSTITUTO/Taller2_2025/Proyecto2doCuatrimestreTaller2/Proyectos_Taller2_Anio2025.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\00_ENGITHUB\Modulo02_JavaScript\Capitulo999_INSTITUTO\Taller2_2025\Proyecto2doCuatrimestreTaller2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel M\Desktop\Modulo02_JavaScript\Capitulo999_INSTITUTO\Taller2_2025\Proyecto2doCuatrimestreTaller2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5401DF7D-6266-4CF7-90F9-9A50D2B57C18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Respuestas de formulario 1" sheetId="1" r:id="rId1"/>
@@ -18,7 +17,7 @@
     <sheet name="Avances" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Proyectos!$B$2:$G$29</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Proyectos!$B$2:$I$29</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Respuestas de formulario 1'!$K$2:$K$3</definedName>
   </definedNames>
   <calcPr calcId="0"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="175">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -557,16 +556,52 @@
   <si>
     <t>Definición del E.R. Final</t>
   </si>
+  <si>
+    <t>Reorganizar los EndPoint y tenerlos estructurados.</t>
+  </si>
+  <si>
+    <t>CONTROL_24092025</t>
+  </si>
+  <si>
+    <t>Hizo Todo el BackEnd completo y falta Front.</t>
+  </si>
+  <si>
+    <t>Falta combinar los datos y devolver los nombres</t>
+  </si>
+  <si>
+    <t>Faltan los EndPoint</t>
+  </si>
+  <si>
+    <t>Rehacer el D.E.R. - Esquema de la Base de datos</t>
+  </si>
+  <si>
+    <t>Bien. Va comprendiendo los temas. Muy importante</t>
+  </si>
+  <si>
+    <t>Situación complicada. Comprometida</t>
+  </si>
+  <si>
+    <t>Control. Base de datos en la NUBE</t>
+  </si>
+  <si>
+    <t>EndPoint Terminados</t>
+  </si>
+  <si>
+    <t>BackEnd Funcionando.</t>
+  </si>
+  <si>
+    <t>Esta con los EndPoint - vamos al FrontEnd</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="dd\.mm\.yyyy"/>
     <numFmt numFmtId="165" formatCode="m/d/yyyy\ h:mm:ss"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -602,8 +637,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -637,6 +679,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -818,7 +872,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -866,6 +920,8 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -908,7 +964,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1">
-    <tableStyle name="Respuestas de formulario 1-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="Respuestas de formulario 1-style" pivot="0" count="3">
       <tableStyleElement type="headerRow" dxfId="3"/>
       <tableStyleElement type="firstRowStripe" dxfId="2"/>
       <tableStyleElement type="secondRowStripe" dxfId="1"/>
@@ -926,17 +982,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses" displayName="Form_Responses" ref="B2:J29" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Form_Responses" displayName="Form_Responses" ref="B2:J29" headerRowDxfId="0">
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Marca temporal"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Dirección de correo electrónico"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="APELLIDO Y NOMBRES"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="TITULO DE SU PROPUESTA"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="DESCRIPCIÓN DEL PROYECTO"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="CORREO ELECTRONICO (PERSONAL)"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="CORREO ELECTRONICO (INSTITUTO)"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="TELEFONO CELULAR - EJEMPLO 3834402862"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Columna 5"/>
+    <tableColumn id="1" name="Marca temporal"/>
+    <tableColumn id="2" name="Dirección de correo electrónico"/>
+    <tableColumn id="3" name="APELLIDO Y NOMBRES"/>
+    <tableColumn id="4" name="TITULO DE SU PROPUESTA"/>
+    <tableColumn id="5" name="DESCRIPCIÓN DEL PROYECTO"/>
+    <tableColumn id="6" name="CORREO ELECTRONICO (PERSONAL)"/>
+    <tableColumn id="7" name="CORREO ELECTRONICO (INSTITUTO)"/>
+    <tableColumn id="8" name="TELEFONO CELULAR - EJEMPLO 3834402862"/>
+    <tableColumn id="9" name="Columna 5"/>
   </tableColumns>
   <tableStyleInfo name="Respuestas de formulario 1-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1139,7 +1195,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -2098,7 +2154,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="K2:K3" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="K2:K3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
@@ -2107,11 +2163,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B1:H29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:I29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2123,9 +2182,10 @@
     <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.5703125" customWidth="1"/>
     <col min="8" max="8" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="44" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B1" s="20" t="s">
         <v>152</v>
       </c>
@@ -2134,7 +2194,7 @@
       <c r="E1" s="20"/>
       <c r="F1" s="20"/>
     </row>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2" s="15" t="s">
         <v>150</v>
       </c>
@@ -2156,8 +2216,11 @@
       <c r="H2" s="19" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="I2" s="21" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B3">
         <v>1</v>
       </c>
@@ -2180,7 +2243,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B4">
         <v>2</v>
       </c>
@@ -2202,8 +2265,11 @@
       <c r="H4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="I4" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B5">
         <v>3</v>
       </c>
@@ -2222,8 +2288,11 @@
       <c r="G5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="I5" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B6">
         <v>4</v>
       </c>
@@ -2246,7 +2315,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B7">
         <v>5</v>
       </c>
@@ -2269,7 +2338,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B8">
         <v>6</v>
       </c>
@@ -2292,7 +2361,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B9">
         <v>7</v>
       </c>
@@ -2311,8 +2380,11 @@
       <c r="G9" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="I9" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B10">
         <v>8</v>
       </c>
@@ -2332,7 +2404,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B11">
         <v>9</v>
       </c>
@@ -2355,7 +2427,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B12">
         <v>10</v>
       </c>
@@ -2374,8 +2446,11 @@
       <c r="G12" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="I12" s="22" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B13">
         <v>11</v>
       </c>
@@ -2398,7 +2473,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B14">
         <v>12</v>
       </c>
@@ -2420,8 +2495,11 @@
       <c r="H14" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="I14" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B15">
         <v>13</v>
       </c>
@@ -2440,8 +2518,11 @@
       <c r="G15" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="I15" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B16">
         <v>14</v>
       </c>
@@ -2463,8 +2544,11 @@
       <c r="H16" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="I16" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B17">
         <v>15</v>
       </c>
@@ -2484,7 +2568,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B18">
         <v>16</v>
       </c>
@@ -2504,7 +2588,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B19">
         <v>17</v>
       </c>
@@ -2521,7 +2605,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B20">
         <v>18</v>
       </c>
@@ -2543,8 +2627,11 @@
       <c r="H20" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="I20" s="14" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B21">
         <v>19</v>
       </c>
@@ -2567,7 +2654,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B22">
         <v>20</v>
       </c>
@@ -2586,8 +2673,11 @@
       <c r="G22" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="I22" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B23">
         <v>21</v>
       </c>
@@ -2610,7 +2700,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B24">
         <v>22</v>
       </c>
@@ -2632,8 +2722,11 @@
       <c r="H24" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="I24" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B25">
         <v>23</v>
       </c>
@@ -2656,7 +2749,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B26">
         <v>24</v>
       </c>
@@ -2676,7 +2769,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B27">
         <v>25</v>
       </c>
@@ -2695,8 +2788,11 @@
       <c r="H27" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="I27" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B28">
         <v>26</v>
       </c>
@@ -2715,8 +2811,11 @@
       <c r="G28" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="I28" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B29">
         <v>27</v>
       </c>
@@ -2740,16 +2839,17 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B2:G29" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <autoFilter ref="B2:I29"/>
   <mergeCells count="1">
     <mergeCell ref="B1:F1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/Capitulo999_INSTITUTO/Taller2_2025/Proyecto2doCuatrimestreTaller2/Proyectos_Taller2_Anio2025.xlsx
+++ b/Capitulo999_INSTITUTO/Taller2_2025/Proyecto2doCuatrimestreTaller2/Proyectos_Taller2_Anio2025.xlsx
@@ -17,7 +17,7 @@
     <sheet name="Avances" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Proyectos!$B$2:$I$29</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Proyectos!$B$2:$I$30</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Respuestas de formulario 1'!$K$2:$K$3</definedName>
   </definedNames>
   <calcPr calcId="0"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="182">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -591,6 +591,27 @@
   </si>
   <si>
     <t>Esta con los EndPoint - vamos al FrontEnd</t>
+  </si>
+  <si>
+    <t>CONTROL_01102025</t>
+  </si>
+  <si>
+    <t>quiero ver algo de Front</t>
+  </si>
+  <si>
+    <t>Excelente. Va bien en el Front</t>
+  </si>
+  <si>
+    <t>Encarar la parte estadística</t>
+  </si>
+  <si>
+    <t>Terminar el FrontEnd</t>
+  </si>
+  <si>
+    <t>Sistema de Venta de Libros</t>
+  </si>
+  <si>
+    <t>Todavía falta un poquito darle vuelta al frontEnd</t>
   </si>
 </sst>
 </file>
@@ -645,7 +666,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -691,6 +712,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -872,7 +899,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -917,11 +944,12 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2164,13 +2192,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:I29"/>
+  <dimension ref="B1:J30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I16" sqref="I16"/>
+      <selection pane="bottomRight" activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2181,20 +2209,21 @@
     <col min="5" max="5" width="44.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.5703125" customWidth="1"/>
-    <col min="8" max="8" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.85546875" customWidth="1"/>
     <col min="9" max="9" width="44" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B1" s="20" t="s">
+    <row r="1" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B1" s="22" t="s">
         <v>152</v>
       </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-    </row>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+    </row>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B2" s="15" t="s">
         <v>150</v>
       </c>
@@ -2216,11 +2245,14 @@
       <c r="H2" s="19" t="s">
         <v>156</v>
       </c>
-      <c r="I2" s="21" t="s">
+      <c r="I2" s="20" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="J2" s="19" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B3">
         <v>1</v>
       </c>
@@ -2242,8 +2274,11 @@
       <c r="H3" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="J3" s="14" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B4">
         <v>2</v>
       </c>
@@ -2268,8 +2303,11 @@
       <c r="I4" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="J4" s="14" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B5">
         <v>3</v>
       </c>
@@ -2292,7 +2330,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B6">
         <v>4</v>
       </c>
@@ -2314,8 +2352,14 @@
       <c r="H6" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="I6" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="J6" s="23" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B7">
         <v>5</v>
       </c>
@@ -2338,7 +2382,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B8">
         <v>6</v>
       </c>
@@ -2361,7 +2405,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B9">
         <v>7</v>
       </c>
@@ -2383,8 +2427,11 @@
       <c r="I9" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="J9" s="14" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B10">
         <v>8</v>
       </c>
@@ -2404,7 +2451,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B11">
         <v>9</v>
       </c>
@@ -2427,7 +2474,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B12">
         <v>10</v>
       </c>
@@ -2446,11 +2493,11 @@
       <c r="G12" t="s">
         <v>15</v>
       </c>
-      <c r="I12" s="22" t="s">
+      <c r="I12" s="21" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B13">
         <v>11</v>
       </c>
@@ -2473,7 +2520,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B14">
         <v>12</v>
       </c>
@@ -2499,7 +2546,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B15">
         <v>13</v>
       </c>
@@ -2522,7 +2569,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B16">
         <v>14</v>
       </c>
@@ -2547,8 +2594,11 @@
       <c r="I16" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="J16" s="14" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B17">
         <v>15</v>
       </c>
@@ -2567,8 +2617,11 @@
       <c r="G17" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="J17" s="23" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B18">
         <v>16</v>
       </c>
@@ -2588,7 +2641,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B19">
         <v>17</v>
       </c>
@@ -2605,7 +2658,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B20">
         <v>18</v>
       </c>
@@ -2631,7 +2684,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B21">
         <v>19</v>
       </c>
@@ -2654,7 +2707,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B22">
         <v>20</v>
       </c>
@@ -2677,7 +2730,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B23">
         <v>21</v>
       </c>
@@ -2700,7 +2753,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B24">
         <v>22</v>
       </c>
@@ -2726,7 +2779,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B25">
         <v>23</v>
       </c>
@@ -2749,7 +2802,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B26">
         <v>24</v>
       </c>
@@ -2769,7 +2822,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B27">
         <v>25</v>
       </c>
@@ -2792,7 +2845,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B28">
         <v>26</v>
       </c>
@@ -2815,7 +2868,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B29">
         <v>27</v>
       </c>
@@ -2838,8 +2891,14 @@
         <v>159</v>
       </c>
     </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C30" s="14"/>
+      <c r="D30" s="14" t="s">
+        <v>180</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="B2:I29"/>
+  <autoFilter ref="B2:I30"/>
   <mergeCells count="1">
     <mergeCell ref="B1:F1"/>
   </mergeCells>

--- a/Capitulo999_INSTITUTO/Taller2_2025/Proyecto2doCuatrimestreTaller2/Proyectos_Taller2_Anio2025.xlsx
+++ b/Capitulo999_INSTITUTO/Taller2_2025/Proyecto2doCuatrimestreTaller2/Proyectos_Taller2_Anio2025.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel M\Desktop\Modulo02_JavaScript\Capitulo999_INSTITUTO\Taller2_2025\Proyecto2doCuatrimestreTaller2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\00_ENGITHUB\Modulo02_JavaScript\Capitulo999_INSTITUTO\Taller2_2025\Proyecto2doCuatrimestreTaller2\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBA13DAB-0ED9-46DA-9A89-0331A56355EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Respuestas de formulario 1" sheetId="1" r:id="rId1"/>
@@ -17,7 +18,7 @@
     <sheet name="Avances" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Proyectos!$B$2:$I$30</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Proyectos!$B$2:$K$30</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Respuestas de formulario 1'!$K$2:$K$3</definedName>
   </definedNames>
   <calcPr calcId="0"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="185">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -613,11 +614,20 @@
   <si>
     <t>Todavía falta un poquito darle vuelta al frontEnd</t>
   </si>
+  <si>
+    <t>CONTROL_08102025</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="dd\.mm\.yyyy"/>
     <numFmt numFmtId="165" formatCode="m/d/yyyy\ h:mm:ss"/>
@@ -946,10 +956,10 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -992,7 +1002,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1">
-    <tableStyle name="Respuestas de formulario 1-style" pivot="0" count="3">
+    <tableStyle name="Respuestas de formulario 1-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="headerRow" dxfId="3"/>
       <tableStyleElement type="firstRowStripe" dxfId="2"/>
       <tableStyleElement type="secondRowStripe" dxfId="1"/>
@@ -1010,17 +1020,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Form_Responses" displayName="Form_Responses" ref="B2:J29" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses" displayName="Form_Responses" ref="B2:J29" headerRowDxfId="0">
   <tableColumns count="9">
-    <tableColumn id="1" name="Marca temporal"/>
-    <tableColumn id="2" name="Dirección de correo electrónico"/>
-    <tableColumn id="3" name="APELLIDO Y NOMBRES"/>
-    <tableColumn id="4" name="TITULO DE SU PROPUESTA"/>
-    <tableColumn id="5" name="DESCRIPCIÓN DEL PROYECTO"/>
-    <tableColumn id="6" name="CORREO ELECTRONICO (PERSONAL)"/>
-    <tableColumn id="7" name="CORREO ELECTRONICO (INSTITUTO)"/>
-    <tableColumn id="8" name="TELEFONO CELULAR - EJEMPLO 3834402862"/>
-    <tableColumn id="9" name="Columna 5"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Marca temporal"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Dirección de correo electrónico"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="APELLIDO Y NOMBRES"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="TITULO DE SU PROPUESTA"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="DESCRIPCIÓN DEL PROYECTO"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="CORREO ELECTRONICO (PERSONAL)"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="CORREO ELECTRONICO (INSTITUTO)"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="TELEFONO CELULAR - EJEMPLO 3834402862"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Columna 5"/>
   </tableColumns>
   <tableStyleInfo name="Respuestas de formulario 1-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1223,7 +1233,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -2182,7 +2192,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="K2:K3"/>
+  <autoFilter ref="K2:K3" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
@@ -2191,14 +2201,15 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:J30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr filterMode="1"/>
+  <dimension ref="B1:K30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J9" sqref="J9"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2:C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2212,18 +2223,19 @@
     <col min="8" max="8" width="22.85546875" customWidth="1"/>
     <col min="9" max="9" width="44" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B1" s="22" t="s">
+    <row r="1" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B1" s="23" t="s">
         <v>152</v>
       </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-    </row>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+    </row>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B2" s="15" t="s">
         <v>150</v>
       </c>
@@ -2251,8 +2263,11 @@
       <c r="J2" s="19" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="K2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B3">
         <v>1</v>
       </c>
@@ -2277,8 +2292,11 @@
       <c r="J3" s="14" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="K3" s="14" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B4">
         <v>2</v>
       </c>
@@ -2306,8 +2324,11 @@
       <c r="J4" s="14" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="K4" s="14" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B5">
         <v>3</v>
       </c>
@@ -2329,8 +2350,11 @@
       <c r="I5" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="K5" s="14" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B6">
         <v>4</v>
       </c>
@@ -2355,11 +2379,14 @@
       <c r="I6" s="14" t="s">
         <v>172</v>
       </c>
-      <c r="J6" s="23" t="s">
+      <c r="J6" s="22" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="K6" s="14" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B7">
         <v>5</v>
       </c>
@@ -2381,8 +2408,11 @@
       <c r="H7" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="K7" s="14" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B8">
         <v>6</v>
       </c>
@@ -2404,8 +2434,11 @@
       <c r="H8" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="K8" s="14" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B9">
         <v>7</v>
       </c>
@@ -2430,8 +2463,11 @@
       <c r="J9" s="14" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="K9" s="14" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B10">
         <v>8</v>
       </c>
@@ -2450,8 +2486,11 @@
       <c r="G10" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="K10" s="14" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B11">
         <v>9</v>
       </c>
@@ -2473,8 +2512,11 @@
       <c r="H11" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="K11" s="14" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B12">
         <v>10</v>
       </c>
@@ -2496,8 +2538,11 @@
       <c r="I12" s="21" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="K12" s="14" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B13">
         <v>11</v>
       </c>
@@ -2519,8 +2564,11 @@
       <c r="H13" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="K13" s="14" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B14">
         <v>12</v>
       </c>
@@ -2545,8 +2593,11 @@
       <c r="I14" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="K14" s="14" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B15">
         <v>13</v>
       </c>
@@ -2568,8 +2619,11 @@
       <c r="I15" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="K15" s="14" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B16">
         <v>14</v>
       </c>
@@ -2597,8 +2651,11 @@
       <c r="J16" s="14" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="K16" s="14" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B17">
         <v>15</v>
       </c>
@@ -2617,11 +2674,14 @@
       <c r="G17" t="s">
         <v>15</v>
       </c>
-      <c r="J17" s="23" t="s">
+      <c r="J17" s="22" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="K17" s="14" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B18">
         <v>16</v>
       </c>
@@ -2640,8 +2700,11 @@
       <c r="G18" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="K18" s="14" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B19">
         <v>17</v>
       </c>
@@ -2657,8 +2720,11 @@
       <c r="F19" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="K19" s="14" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B20">
         <v>18</v>
       </c>
@@ -2683,8 +2749,11 @@
       <c r="I20" s="14" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="K20" s="14" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B21">
         <v>19</v>
       </c>
@@ -2706,8 +2775,11 @@
       <c r="H21" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="K21" s="14" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B22">
         <v>20</v>
       </c>
@@ -2729,8 +2801,11 @@
       <c r="I22" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="K22" s="14" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B23">
         <v>21</v>
       </c>
@@ -2752,8 +2827,11 @@
       <c r="H23" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="K23" s="14" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B24">
         <v>22</v>
       </c>
@@ -2778,8 +2856,11 @@
       <c r="I24" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="K24" s="14" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B25">
         <v>23</v>
       </c>
@@ -2801,8 +2882,11 @@
       <c r="H25" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="K25" s="14" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B26">
         <v>24</v>
       </c>
@@ -2821,8 +2905,11 @@
       <c r="G26" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="K26" s="14" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B27">
         <v>25</v>
       </c>
@@ -2844,8 +2931,11 @@
       <c r="I27" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="K27" s="14" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B28">
         <v>26</v>
       </c>
@@ -2867,8 +2957,11 @@
       <c r="I28" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="K28" s="14" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B29">
         <v>27</v>
       </c>
@@ -2890,15 +2983,24 @@
       <c r="H29" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="K29" s="14" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="C30" s="14"/>
       <c r="D30" s="14" t="s">
         <v>180</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B2:I30"/>
+  <autoFilter ref="B2:K30" xr:uid="{00000000-0001-0000-0100-000000000000}">
+    <filterColumn colId="9">
+      <filters>
+        <filter val="SI"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="1">
     <mergeCell ref="B1:F1"/>
   </mergeCells>
@@ -2908,7 +3010,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/Capitulo999_INSTITUTO/Taller2_2025/Proyecto2doCuatrimestreTaller2/Proyectos_Taller2_Anio2025.xlsx
+++ b/Capitulo999_INSTITUTO/Taller2_2025/Proyecto2doCuatrimestreTaller2/Proyectos_Taller2_Anio2025.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\00_ENGITHUB\Modulo02_JavaScript\Capitulo999_INSTITUTO\Taller2_2025\Proyecto2doCuatrimestreTaller2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel M\Desktop\Modulo02_JavaScript\Capitulo999_INSTITUTO\Taller2_2025\Proyecto2doCuatrimestreTaller2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBA13DAB-0ED9-46DA-9A89-0331A56355EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Respuestas de formulario 1" sheetId="1" r:id="rId1"/>
@@ -18,7 +17,7 @@
     <sheet name="Avances" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Proyectos!$B$2:$K$30</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Proyectos!$B$2:$K$31</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Respuestas de formulario 1'!$K$2:$K$3</definedName>
   </definedNames>
   <calcPr calcId="0"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="196">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -623,11 +622,44 @@
   <si>
     <t>SI</t>
   </si>
+  <si>
+    <t>AVANZA HACIA LA PARTE ESTADÍSTICA</t>
+  </si>
+  <si>
+    <t>TIENE QUE HACER EL BACKEND - RESTO</t>
+  </si>
+  <si>
+    <t>FALTA EL FRONT END</t>
+  </si>
+  <si>
+    <t>SEGUIR TRABAJANDO CON EL FRONT</t>
+  </si>
+  <si>
+    <t>TERMINAR FRONTEND - SEGUIR ESTADISTICA</t>
+  </si>
+  <si>
+    <t>Chico de San Antonio</t>
+  </si>
+  <si>
+    <t>DIAGRAMA RELACIONAL. DOMINAR SQL A FONDO</t>
+  </si>
+  <si>
+    <t>Barrionuevo Ulises</t>
+  </si>
+  <si>
+    <t>Gestión de TURNOS</t>
+  </si>
+  <si>
+    <t>PRESENTACIÓN INICIAL</t>
+  </si>
+  <si>
+    <t>TERMINAR FRONT END.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="dd\.mm\.yyyy"/>
     <numFmt numFmtId="165" formatCode="m/d/yyyy\ h:mm:ss"/>
@@ -676,7 +708,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -728,6 +760,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -909,7 +947,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -960,6 +998,9 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1002,7 +1043,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1">
-    <tableStyle name="Respuestas de formulario 1-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="Respuestas de formulario 1-style" pivot="0" count="3">
       <tableStyleElement type="headerRow" dxfId="3"/>
       <tableStyleElement type="firstRowStripe" dxfId="2"/>
       <tableStyleElement type="secondRowStripe" dxfId="1"/>
@@ -1020,17 +1061,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses" displayName="Form_Responses" ref="B2:J29" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Form_Responses" displayName="Form_Responses" ref="B2:J29" headerRowDxfId="0">
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Marca temporal"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Dirección de correo electrónico"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="APELLIDO Y NOMBRES"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="TITULO DE SU PROPUESTA"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="DESCRIPCIÓN DEL PROYECTO"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="CORREO ELECTRONICO (PERSONAL)"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="CORREO ELECTRONICO (INSTITUTO)"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="TELEFONO CELULAR - EJEMPLO 3834402862"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Columna 5"/>
+    <tableColumn id="1" name="Marca temporal"/>
+    <tableColumn id="2" name="Dirección de correo electrónico"/>
+    <tableColumn id="3" name="APELLIDO Y NOMBRES"/>
+    <tableColumn id="4" name="TITULO DE SU PROPUESTA"/>
+    <tableColumn id="5" name="DESCRIPCIÓN DEL PROYECTO"/>
+    <tableColumn id="6" name="CORREO ELECTRONICO (PERSONAL)"/>
+    <tableColumn id="7" name="CORREO ELECTRONICO (INSTITUTO)"/>
+    <tableColumn id="8" name="TELEFONO CELULAR - EJEMPLO 3834402862"/>
+    <tableColumn id="9" name="Columna 5"/>
   </tableColumns>
   <tableStyleInfo name="Respuestas de formulario 1-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1233,7 +1274,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -2192,7 +2233,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="K2:K3" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="K2:K3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
@@ -2201,15 +2242,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="B1:K30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:K31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2:C29"/>
+      <selection pane="bottomRight" activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2223,7 +2263,7 @@
     <col min="8" max="8" width="22.85546875" customWidth="1"/>
     <col min="9" max="9" width="44" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.7109375" customWidth="1"/>
+    <col min="11" max="11" width="37.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:11" x14ac:dyDescent="0.2">
@@ -2263,11 +2303,11 @@
       <c r="J2" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="26" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="3" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B3">
         <v>1</v>
       </c>
@@ -2296,7 +2336,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="4" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B4">
         <v>2</v>
       </c>
@@ -2328,7 +2368,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="5" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B5">
         <v>3</v>
       </c>
@@ -2354,7 +2394,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="6" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B6">
         <v>4</v>
       </c>
@@ -2386,7 +2426,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="7" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B7">
         <v>5</v>
       </c>
@@ -2412,7 +2452,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="8" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B8">
         <v>6</v>
       </c>
@@ -2438,7 +2478,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="9" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B9">
         <v>7</v>
       </c>
@@ -2467,27 +2507,27 @@
         <v>183</v>
       </c>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B10">
+    <row r="10" spans="2:11" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="24">
         <v>8</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="24">
         <v>3834591946</v>
       </c>
-      <c r="F10" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" t="s">
-        <v>15</v>
-      </c>
-      <c r="K10" s="14" t="s">
-        <v>184</v>
+      <c r="F10" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="K10" s="25" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.2">
@@ -2513,7 +2553,7 @@
         <v>15</v>
       </c>
       <c r="K11" s="14" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.2">
@@ -2539,7 +2579,7 @@
         <v>170</v>
       </c>
       <c r="K12" s="14" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.2">
@@ -2565,10 +2605,10 @@
         <v>162</v>
       </c>
       <c r="K13" s="14" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="14" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B14">
         <v>12</v>
       </c>
@@ -2597,7 +2637,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="15" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B15">
         <v>13</v>
       </c>
@@ -2620,10 +2660,10 @@
         <v>174</v>
       </c>
       <c r="K15" s="14" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="16" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B16">
         <v>14</v>
       </c>
@@ -2655,7 +2695,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="17" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B17">
         <v>15</v>
       </c>
@@ -2701,7 +2741,7 @@
         <v>15</v>
       </c>
       <c r="K18" s="14" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.2">
@@ -2724,7 +2764,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="20" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B20">
         <v>18</v>
       </c>
@@ -2776,7 +2816,7 @@
         <v>155</v>
       </c>
       <c r="K21" s="14" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.2">
@@ -2802,7 +2842,7 @@
         <v>163</v>
       </c>
       <c r="K22" s="14" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.2">
@@ -2828,10 +2868,10 @@
         <v>160</v>
       </c>
       <c r="K23" s="14" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="24" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B24">
         <v>22</v>
       </c>
@@ -2883,7 +2923,7 @@
         <v>162</v>
       </c>
       <c r="K25" s="14" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.2">
@@ -2932,10 +2972,10 @@
         <v>167</v>
       </c>
       <c r="K27" s="14" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="28" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B28">
         <v>26</v>
       </c>
@@ -2958,15 +2998,15 @@
         <v>165</v>
       </c>
       <c r="K28" s="14" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B29">
         <v>27</v>
       </c>
-      <c r="C29" t="s">
-        <v>147</v>
+      <c r="C29" s="14" t="s">
+        <v>47</v>
       </c>
       <c r="D29" t="s">
         <v>148</v>
@@ -2984,23 +3024,36 @@
         <v>159</v>
       </c>
       <c r="K29" s="14" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="30" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="C30" s="14"/>
+        <v>189</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B30">
+        <v>28</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>190</v>
+      </c>
       <c r="D30" s="14" t="s">
         <v>180</v>
       </c>
     </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B31">
+        <v>29</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="D31" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="K31" t="s">
+        <v>194</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="B2:K30" xr:uid="{00000000-0001-0000-0100-000000000000}">
-    <filterColumn colId="9">
-      <filters>
-        <filter val="SI"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="B2:K31"/>
   <mergeCells count="1">
     <mergeCell ref="B1:F1"/>
   </mergeCells>
@@ -3010,7 +3063,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/Capitulo999_INSTITUTO/Taller2_2025/Proyecto2doCuatrimestreTaller2/Proyectos_Taller2_Anio2025.xlsx
+++ b/Capitulo999_INSTITUTO/Taller2_2025/Proyecto2doCuatrimestreTaller2/Proyectos_Taller2_Anio2025.xlsx
@@ -17,7 +17,7 @@
     <sheet name="Avances" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Proyectos!$B$2:$K$31</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Proyectos!$B$2:$M$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Respuestas de formulario 1'!$K$2:$K$3</definedName>
   </definedNames>
   <calcPr calcId="0"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="212">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -654,6 +654,54 @@
   </si>
   <si>
     <t>TERMINAR FRONT END.</t>
+  </si>
+  <si>
+    <t>CONTROL_15102025</t>
+  </si>
+  <si>
+    <t>ASISTENCIA</t>
+  </si>
+  <si>
+    <t>FALTA FRONT. PEDIDO Y PEDIDO DETALLE</t>
+  </si>
+  <si>
+    <t>AGREGAR TABLA TipoMedicamento y encarar parte gráfica</t>
+  </si>
+  <si>
+    <t>Guzman Mathias</t>
+  </si>
+  <si>
+    <t>Cliente</t>
+  </si>
+  <si>
+    <t>TERMINADO</t>
+  </si>
+  <si>
+    <t>ENCARAR PARTE ESTADÍSTICA</t>
+  </si>
+  <si>
+    <t>EN LA PARTE ESTADÍSTICA</t>
+  </si>
+  <si>
+    <t>HACER EL FRONT PARA ALTA USUARIO Y LISTADO DE USUARIOS</t>
+  </si>
+  <si>
+    <t>LISTO. TERMINADO</t>
+  </si>
+  <si>
+    <t>ALTA DE CLIENTE, ALTA PRODUCTO.</t>
+  </si>
+  <si>
+    <t>SIGUE CON EL FRONT END. LINDO</t>
+  </si>
+  <si>
+    <t>SEGUIR CON EL FRONT END</t>
+  </si>
+  <si>
+    <t>TERMINAR EL FRONT END</t>
+  </si>
+  <si>
+    <t>TRABAJAR EN LA PARTE ESTADISTICA</t>
   </si>
 </sst>
 </file>
@@ -947,7 +995,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -995,12 +1043,13 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2243,13 +2292,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:K31"/>
+  <dimension ref="B1:M32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="L3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K5" sqref="K5"/>
+      <selection pane="bottomRight" activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2263,19 +2312,21 @@
     <col min="8" max="8" width="22.85546875" customWidth="1"/>
     <col min="9" max="9" width="44" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="37.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="47" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="40.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B1" s="23" t="s">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B1" s="26" t="s">
         <v>152</v>
       </c>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-    </row>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+    </row>
+    <row r="2" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B2" s="15" t="s">
         <v>150</v>
       </c>
@@ -2303,11 +2354,17 @@
       <c r="J2" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="K2" s="26" t="s">
+      <c r="K2" s="25" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L2" t="s">
+        <v>197</v>
+      </c>
+      <c r="M2" s="27" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B3">
         <v>1</v>
       </c>
@@ -2335,8 +2392,14 @@
       <c r="K3" s="14" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L3" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="M3" s="14" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B4">
         <v>2</v>
       </c>
@@ -2367,8 +2430,11 @@
       <c r="K4" s="14" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L4" s="14" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B5">
         <v>3</v>
       </c>
@@ -2393,8 +2459,11 @@
       <c r="K5" s="14" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L5" s="14" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B6">
         <v>4</v>
       </c>
@@ -2425,8 +2494,11 @@
       <c r="K6" s="14" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L6" s="14" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B7">
         <v>5</v>
       </c>
@@ -2451,8 +2523,14 @@
       <c r="K7" s="14" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="M7" s="14" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B8">
         <v>6</v>
       </c>
@@ -2477,8 +2555,14 @@
       <c r="K8" s="14" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="M8" s="14" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B9">
         <v>7</v>
       </c>
@@ -2506,31 +2590,37 @@
       <c r="K9" s="14" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="10" spans="2:11" s="24" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="24">
+      <c r="L9" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="M9" s="14" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="23">
         <v>8</v>
       </c>
-      <c r="C10" s="24" t="s">
+      <c r="C10" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="D10" s="24" t="s">
+      <c r="D10" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="E10" s="24">
+      <c r="E10" s="23">
         <v>3834591946</v>
       </c>
-      <c r="F10" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="K10" s="25" t="s">
+      <c r="F10" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="K10" s="24" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B11">
         <v>9</v>
       </c>
@@ -2555,8 +2645,14 @@
       <c r="K11" s="14" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="M11" s="14" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B12">
         <v>10</v>
       </c>
@@ -2581,8 +2677,14 @@
       <c r="K12" s="14" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="M12" s="14" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B13">
         <v>11</v>
       </c>
@@ -2607,8 +2709,11 @@
       <c r="K13" s="14" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="14" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B14">
         <v>12</v>
       </c>
@@ -2636,8 +2741,11 @@
       <c r="K14" s="14" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="14" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B15">
         <v>13</v>
       </c>
@@ -2662,8 +2770,11 @@
       <c r="K15" s="14" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="14" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B16">
         <v>14</v>
       </c>
@@ -2694,8 +2805,14 @@
       <c r="K16" s="14" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="M16" s="14" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B17">
         <v>15</v>
       </c>
@@ -2720,8 +2837,11 @@
       <c r="K17" s="14" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="14" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B18">
         <v>16</v>
       </c>
@@ -2743,8 +2863,14 @@
       <c r="K18" s="14" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="M18" s="14" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B19">
         <v>17</v>
       </c>
@@ -2763,8 +2889,14 @@
       <c r="K19" s="14" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="M19" s="14" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B20">
         <v>18</v>
       </c>
@@ -2792,8 +2924,11 @@
       <c r="K20" s="14" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="14" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B21">
         <v>19</v>
       </c>
@@ -2818,8 +2953,11 @@
       <c r="K21" s="14" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="14" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B22">
         <v>20</v>
       </c>
@@ -2844,8 +2982,14 @@
       <c r="K22" s="14" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="M22" s="14" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B23">
         <v>21</v>
       </c>
@@ -2870,8 +3014,14 @@
       <c r="K23" s="14" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="M23" s="14" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B24">
         <v>22</v>
       </c>
@@ -2899,8 +3049,11 @@
       <c r="K24" s="14" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="14" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B25">
         <v>23</v>
       </c>
@@ -2925,8 +3078,14 @@
       <c r="K25" s="14" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="M25" s="14" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B26">
         <v>24</v>
       </c>
@@ -2948,8 +3107,14 @@
       <c r="K26" s="14" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="M26" s="14" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B27">
         <v>25</v>
       </c>
@@ -2974,8 +3139,14 @@
       <c r="K27" s="14" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="M27" s="14" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B28">
         <v>26</v>
       </c>
@@ -3000,8 +3171,11 @@
       <c r="K28" s="14" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="14" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B29">
         <v>27</v>
       </c>
@@ -3026,8 +3200,11 @@
       <c r="K29" s="14" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="14" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B30">
         <v>28</v>
       </c>
@@ -3038,7 +3215,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B31">
         <v>29</v>
       </c>
@@ -3051,9 +3228,29 @@
       <c r="K31" t="s">
         <v>194</v>
       </c>
+      <c r="L31" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B32">
+        <v>30</v>
+      </c>
+      <c r="C32" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="D32" s="14" t="s">
+        <v>201</v>
+      </c>
+      <c r="L32" t="s">
+        <v>184</v>
+      </c>
+      <c r="M32" t="s">
+        <v>202</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="B2:K31"/>
+  <autoFilter ref="B2:M2"/>
   <mergeCells count="1">
     <mergeCell ref="B1:F1"/>
   </mergeCells>

--- a/Capitulo999_INSTITUTO/Taller2_2025/Proyecto2doCuatrimestreTaller2/Proyectos_Taller2_Anio2025.xlsx
+++ b/Capitulo999_INSTITUTO/Taller2_2025/Proyecto2doCuatrimestreTaller2/Proyectos_Taller2_Anio2025.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="222">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -702,6 +702,36 @@
   </si>
   <si>
     <t>TRABAJAR EN LA PARTE ESTADISTICA</t>
+  </si>
+  <si>
+    <t>CONTROL_22102025</t>
+  </si>
+  <si>
+    <t>HACER UN GRAFICO DONDE RECUPERE DATOS DEL MOTOR</t>
+  </si>
+  <si>
+    <t>FALTA LA PARTE DEL FRONT END</t>
+  </si>
+  <si>
+    <t>FALTAN LOS GRÁFICOS</t>
+  </si>
+  <si>
+    <t>ENCARA LA PARTE GRÁFICA</t>
+  </si>
+  <si>
+    <t>FALTA LA PARTE DEL FRONT END - ALTA</t>
+  </si>
+  <si>
+    <t>FALTA TERMINAR LOS ENDPOINT</t>
+  </si>
+  <si>
+    <t>TERMINA LA PARTE GRÁFICA</t>
+  </si>
+  <si>
+    <t>FALTAN ALTA Y MODIFICACIÓN</t>
+  </si>
+  <si>
+    <t>FALTA COMPRENSIÓN DE LOS DATOS GRÁFICOS</t>
   </si>
 </sst>
 </file>
@@ -1046,10 +1076,10 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2292,13 +2322,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:M32"/>
+  <dimension ref="B1:N32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="L3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="N3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L9" sqref="L9"/>
+      <selection pane="bottomRight" activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2315,18 +2345,19 @@
     <col min="11" max="11" width="47" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="19.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="40.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="56.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B1" s="26" t="s">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B1" s="27" t="s">
         <v>152</v>
       </c>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-    </row>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+    </row>
+    <row r="2" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B2" s="15" t="s">
         <v>150</v>
       </c>
@@ -2360,11 +2391,14 @@
       <c r="L2" t="s">
         <v>197</v>
       </c>
-      <c r="M2" s="27" t="s">
+      <c r="M2" s="26" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B3">
         <v>1</v>
       </c>
@@ -2399,7 +2433,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B4">
         <v>2</v>
       </c>
@@ -2433,8 +2467,11 @@
       <c r="L4" s="14" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N4" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B5">
         <v>3</v>
       </c>
@@ -2462,8 +2499,11 @@
       <c r="L5" s="14" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N5" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B6">
         <v>4</v>
       </c>
@@ -2497,8 +2537,11 @@
       <c r="L6" s="14" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N6" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B7">
         <v>5</v>
       </c>
@@ -2530,7 +2573,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B8">
         <v>6</v>
       </c>
@@ -2562,7 +2605,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B9">
         <v>7</v>
       </c>
@@ -2597,7 +2640,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="10" spans="2:13" s="23" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:14" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="23">
         <v>8</v>
       </c>
@@ -2620,7 +2663,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B11">
         <v>9</v>
       </c>
@@ -2652,7 +2695,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B12">
         <v>10</v>
       </c>
@@ -2683,8 +2726,11 @@
       <c r="M12" s="14" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="14" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B13">
         <v>11</v>
       </c>
@@ -2712,8 +2758,11 @@
       <c r="L13" s="14" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N13" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B14">
         <v>12</v>
       </c>
@@ -2744,8 +2793,11 @@
       <c r="L14" s="14" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N14" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B15">
         <v>13</v>
       </c>
@@ -2774,7 +2826,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B16">
         <v>14</v>
       </c>
@@ -2812,7 +2864,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B17">
         <v>15</v>
       </c>
@@ -2840,8 +2892,11 @@
       <c r="L17" s="14" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N17" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B18">
         <v>16</v>
       </c>
@@ -2869,8 +2924,11 @@
       <c r="M18" s="14" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="14" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B19">
         <v>17</v>
       </c>
@@ -2895,8 +2953,11 @@
       <c r="M19" s="14" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="14" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B20">
         <v>18</v>
       </c>
@@ -2928,7 +2989,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B21">
         <v>19</v>
       </c>
@@ -2956,8 +3017,11 @@
       <c r="L21" s="14" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N21" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B22">
         <v>20</v>
       </c>
@@ -2989,7 +3053,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B23">
         <v>21</v>
       </c>
@@ -3021,7 +3085,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B24">
         <v>22</v>
       </c>
@@ -3052,8 +3116,11 @@
       <c r="L24" s="14" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N24" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B25">
         <v>23</v>
       </c>
@@ -3085,7 +3152,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B26">
         <v>24</v>
       </c>
@@ -3114,7 +3181,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B27">
         <v>25</v>
       </c>
@@ -3146,7 +3213,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B28">
         <v>26</v>
       </c>
@@ -3175,7 +3242,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B29">
         <v>27</v>
       </c>
@@ -3204,7 +3271,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B30">
         <v>28</v>
       </c>
@@ -3215,7 +3282,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B31">
         <v>29</v>
       </c>
@@ -3231,8 +3298,11 @@
       <c r="L31" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N31" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B32">
         <v>30</v>
       </c>

--- a/Capitulo999_INSTITUTO/Taller2_2025/Proyecto2doCuatrimestreTaller2/Proyectos_Taller2_Anio2025.xlsx
+++ b/Capitulo999_INSTITUTO/Taller2_2025/Proyecto2doCuatrimestreTaller2/Proyectos_Taller2_Anio2025.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="226">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -732,6 +732,18 @@
   </si>
   <si>
     <t>FALTA COMPRENSIÓN DE LOS DATOS GRÁFICOS</t>
+  </si>
+  <si>
+    <t>29_10_2025</t>
+  </si>
+  <si>
+    <t>PROXIMA</t>
+  </si>
+  <si>
+    <t>FINALIZADO</t>
+  </si>
+  <si>
+    <t>CONTINUA</t>
   </si>
 </sst>
 </file>
@@ -2322,13 +2334,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:N32"/>
+  <dimension ref="B1:O32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="N3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="O3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="N14" sqref="N14"/>
+      <selection pane="bottomRight" activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2348,7 +2360,7 @@
     <col min="14" max="14" width="56.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B1" s="27" t="s">
         <v>152</v>
       </c>
@@ -2357,7 +2369,7 @@
       <c r="E1" s="27"/>
       <c r="F1" s="27"/>
     </row>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B2" s="15" t="s">
         <v>150</v>
       </c>
@@ -2397,8 +2409,11 @@
       <c r="N2" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B3">
         <v>1</v>
       </c>
@@ -2433,7 +2448,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B4">
         <v>2</v>
       </c>
@@ -2471,7 +2486,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B5">
         <v>3</v>
       </c>
@@ -2503,7 +2518,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B6">
         <v>4</v>
       </c>
@@ -2541,7 +2556,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B7">
         <v>5</v>
       </c>
@@ -2573,7 +2588,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B8">
         <v>6</v>
       </c>
@@ -2605,7 +2620,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B9">
         <v>7</v>
       </c>
@@ -2640,7 +2655,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="10" spans="2:14" s="23" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:15" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="23">
         <v>8</v>
       </c>
@@ -2663,7 +2678,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B11">
         <v>9</v>
       </c>
@@ -2694,8 +2709,11 @@
       <c r="M11" s="14" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O11" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B12">
         <v>10</v>
       </c>
@@ -2729,8 +2747,11 @@
       <c r="N12" s="14" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="14" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B13">
         <v>11</v>
       </c>
@@ -2762,7 +2783,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B14">
         <v>12</v>
       </c>
@@ -2797,7 +2818,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B15">
         <v>13</v>
       </c>
@@ -2826,7 +2847,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B16">
         <v>14</v>
       </c>
@@ -2864,7 +2885,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B17">
         <v>15</v>
       </c>
@@ -2896,7 +2917,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B18">
         <v>16</v>
       </c>
@@ -2928,7 +2949,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B19">
         <v>17</v>
       </c>
@@ -2957,7 +2978,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B20">
         <v>18</v>
       </c>
@@ -2989,7 +3010,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B21">
         <v>19</v>
       </c>
@@ -3021,7 +3042,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B22">
         <v>20</v>
       </c>
@@ -3053,7 +3074,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B23">
         <v>21</v>
       </c>
@@ -3085,7 +3106,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B24">
         <v>22</v>
       </c>
@@ -3120,7 +3141,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B25">
         <v>23</v>
       </c>
@@ -3152,7 +3173,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B26">
         <v>24</v>
       </c>
@@ -3181,7 +3202,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B27">
         <v>25</v>
       </c>
@@ -3213,7 +3234,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B28">
         <v>26</v>
       </c>
@@ -3241,8 +3262,11 @@
       <c r="L28" s="14" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O28" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="29" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B29">
         <v>27</v>
       </c>
@@ -3271,7 +3295,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B30">
         <v>28</v>
       </c>
@@ -3282,7 +3306,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B31">
         <v>29</v>
       </c>
@@ -3301,8 +3325,11 @@
       <c r="N31" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O31" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="32" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B32">
         <v>30</v>
       </c>

--- a/Capitulo999_INSTITUTO/Taller2_2025/Proyecto2doCuatrimestreTaller2/Proyectos_Taller2_Anio2025.xlsx
+++ b/Capitulo999_INSTITUTO/Taller2_2025/Proyecto2doCuatrimestreTaller2/Proyectos_Taller2_Anio2025.xlsx
@@ -17,7 +17,7 @@
     <sheet name="Avances" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Proyectos!$B$2:$M$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Proyectos!$B$2:$O$31</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Respuestas de formulario 1'!$K$2:$K$3</definedName>
   </definedNames>
   <calcPr calcId="0"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="229">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -737,13 +737,22 @@
     <t>29_10_2025</t>
   </si>
   <si>
-    <t>PROXIMA</t>
-  </si>
-  <si>
     <t>FINALIZADO</t>
   </si>
   <si>
-    <t>CONTINUA</t>
+    <t>FALTAN GRAFICOS</t>
+  </si>
+  <si>
+    <t>FALTAN GRAFICOS - RESOLVER QUERY EN EL MOTOR</t>
+  </si>
+  <si>
+    <t>FALTA GRAFICO - CANTIDAD DE JUEGOS POR DESARROLLADOR</t>
+  </si>
+  <si>
+    <t>FALTA TERMINAR EL PROYECTO</t>
+  </si>
+  <si>
+    <t>FALTA MOSTRAR PROYECTO FINAL</t>
   </si>
 </sst>
 </file>
@@ -754,7 +763,7 @@
     <numFmt numFmtId="164" formatCode="dd\.mm\.yyyy"/>
     <numFmt numFmtId="165" formatCode="m/d/yyyy\ h:mm:ss"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -797,8 +806,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -850,12 +865,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1037,7 +1046,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1085,13 +1094,15 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2334,13 +2345,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:O32"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="B1:O31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane xSplit="3" ySplit="2" topLeftCell="O3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="O12" sqref="O12"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2:C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2358,6 +2370,7 @@
     <col min="12" max="12" width="19.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="40.42578125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="56.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="60.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:15" x14ac:dyDescent="0.2">
@@ -2397,13 +2410,13 @@
       <c r="J2" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="K2" s="25" t="s">
+      <c r="K2" s="23" t="s">
         <v>182</v>
       </c>
       <c r="L2" t="s">
         <v>197</v>
       </c>
-      <c r="M2" s="26" t="s">
+      <c r="M2" s="24" t="s">
         <v>196</v>
       </c>
       <c r="N2" t="s">
@@ -2413,7 +2426,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="B3">
         <v>1</v>
       </c>
@@ -2447,8 +2460,11 @@
       <c r="M3" s="14" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O3" s="23" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="B4">
         <v>2</v>
       </c>
@@ -2485,8 +2501,11 @@
       <c r="N4" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O4" s="23" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="B5">
         <v>3</v>
       </c>
@@ -2517,8 +2536,11 @@
       <c r="N5" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O5" s="23" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="B6">
         <v>4</v>
       </c>
@@ -2555,8 +2577,11 @@
       <c r="N6" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O6" s="23" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="B7">
         <v>5</v>
       </c>
@@ -2586,6 +2611,9 @@
       </c>
       <c r="M7" s="14" t="s">
         <v>206</v>
+      </c>
+      <c r="O7" s="23" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.2">
@@ -2619,8 +2647,11 @@
       <c r="M8" s="14" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O8" s="25" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="B9">
         <v>7</v>
       </c>
@@ -2654,147 +2685,168 @@
       <c r="M9" s="14" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="10" spans="2:15" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="23">
-        <v>8</v>
-      </c>
-      <c r="C10" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="D10" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="E10" s="23">
-        <v>3834591946</v>
-      </c>
-      <c r="F10" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="K10" s="24" t="s">
+      <c r="O9" s="23" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10">
+        <v>3834594836</v>
+      </c>
+      <c r="F10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" t="s">
+        <v>15</v>
+      </c>
+      <c r="K10" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="L10" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="M10" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="O10" s="23" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11">
+        <v>3834659904</v>
+      </c>
+      <c r="F11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="K11" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="L11" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="M11" s="14" t="s">
+        <v>209</v>
+      </c>
+      <c r="N11" s="14" t="s">
+        <v>215</v>
+      </c>
+      <c r="O11" s="23" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" t="s">
+        <v>64</v>
+      </c>
+      <c r="E12">
+        <v>3834267448</v>
+      </c>
+      <c r="F12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" t="s">
+        <v>162</v>
+      </c>
+      <c r="K12" s="14" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B11">
-        <v>9</v>
-      </c>
-      <c r="C11" t="s">
-        <v>53</v>
-      </c>
-      <c r="D11" t="s">
-        <v>54</v>
-      </c>
-      <c r="E11">
-        <v>3834594836</v>
-      </c>
-      <c r="F11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" t="s">
-        <v>15</v>
-      </c>
-      <c r="H11" t="s">
-        <v>15</v>
-      </c>
-      <c r="K11" s="14" t="s">
-        <v>185</v>
-      </c>
-      <c r="L11" s="14" t="s">
+      <c r="L12" s="14" t="s">
         <v>184</v>
       </c>
-      <c r="M11" s="14" t="s">
-        <v>204</v>
-      </c>
-      <c r="O11" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B12">
-        <v>10</v>
-      </c>
-      <c r="C12" t="s">
-        <v>58</v>
-      </c>
-      <c r="D12" t="s">
-        <v>59</v>
-      </c>
-      <c r="E12">
-        <v>3834659904</v>
-      </c>
-      <c r="F12" t="s">
-        <v>14</v>
-      </c>
-      <c r="G12" t="s">
-        <v>15</v>
-      </c>
-      <c r="I12" s="21" t="s">
-        <v>170</v>
-      </c>
-      <c r="K12" s="14" t="s">
-        <v>191</v>
-      </c>
-      <c r="L12" s="14" t="s">
+      <c r="N12" t="s">
+        <v>216</v>
+      </c>
+      <c r="O12" s="23" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D13" t="s">
+        <v>69</v>
+      </c>
+      <c r="E13">
+        <v>2915356748</v>
+      </c>
+      <c r="F13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" t="s">
+        <v>158</v>
+      </c>
+      <c r="I13" t="s">
+        <v>168</v>
+      </c>
+      <c r="K13" s="14" t="s">
         <v>183</v>
-      </c>
-      <c r="M12" s="14" t="s">
-        <v>209</v>
-      </c>
-      <c r="N12" s="14" t="s">
-        <v>215</v>
-      </c>
-      <c r="O12" s="14" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B13">
-        <v>11</v>
-      </c>
-      <c r="C13" t="s">
-        <v>63</v>
-      </c>
-      <c r="D13" t="s">
-        <v>64</v>
-      </c>
-      <c r="E13">
-        <v>3834267448</v>
-      </c>
-      <c r="F13" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" t="s">
-        <v>15</v>
-      </c>
-      <c r="H13" t="s">
-        <v>162</v>
-      </c>
-      <c r="K13" s="14" t="s">
-        <v>189</v>
       </c>
       <c r="L13" s="14" t="s">
         <v>184</v>
       </c>
       <c r="N13" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.2">
+        <v>215</v>
+      </c>
+      <c r="O13" s="23" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="B14">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="D14" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="E14">
-        <v>2915356748</v>
+        <v>3834592351</v>
       </c>
       <c r="F14" t="s">
         <v>14</v>
@@ -2802,63 +2854,72 @@
       <c r="G14" t="s">
         <v>15</v>
       </c>
-      <c r="H14" t="s">
-        <v>158</v>
-      </c>
       <c r="I14" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="K14" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="L14" s="14" t="s">
         <v>183</v>
       </c>
-      <c r="L14" s="14" t="s">
+      <c r="O14" s="23" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B15">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>78</v>
+      </c>
+      <c r="D15" t="s">
+        <v>79</v>
+      </c>
+      <c r="E15">
+        <v>38348094313</v>
+      </c>
+      <c r="F15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15" t="s">
+        <v>161</v>
+      </c>
+      <c r="I15" t="s">
+        <v>169</v>
+      </c>
+      <c r="J15" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="K15" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="L15" s="14" t="s">
         <v>184</v>
       </c>
-      <c r="N14" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B15">
-        <v>13</v>
-      </c>
-      <c r="C15" t="s">
-        <v>73</v>
-      </c>
-      <c r="D15" t="s">
-        <v>74</v>
-      </c>
-      <c r="E15">
-        <v>3834592351</v>
-      </c>
-      <c r="F15" t="s">
-        <v>14</v>
-      </c>
-      <c r="G15" t="s">
-        <v>15</v>
-      </c>
-      <c r="I15" t="s">
-        <v>174</v>
-      </c>
-      <c r="K15" s="14" t="s">
-        <v>185</v>
-      </c>
-      <c r="L15" s="14" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="M15" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="O15" s="23" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="B16">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="D16" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="E16">
-        <v>38348094313</v>
+        <v>3834355149</v>
       </c>
       <c r="F16" t="s">
         <v>14</v>
@@ -2866,14 +2927,8 @@
       <c r="G16" t="s">
         <v>15</v>
       </c>
-      <c r="H16" t="s">
-        <v>161</v>
-      </c>
-      <c r="I16" t="s">
-        <v>169</v>
-      </c>
-      <c r="J16" s="14" t="s">
-        <v>179</v>
+      <c r="J16" s="22" t="s">
+        <v>178</v>
       </c>
       <c r="K16" s="14" t="s">
         <v>183</v>
@@ -2881,22 +2936,25 @@
       <c r="L16" s="14" t="s">
         <v>184</v>
       </c>
-      <c r="M16" s="14" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="N16" t="s">
+        <v>219</v>
+      </c>
+      <c r="O16" s="23" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="B17">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="D17" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="E17">
-        <v>3834355149</v>
+        <v>3834579406</v>
       </c>
       <c r="F17" t="s">
         <v>14</v>
@@ -2904,92 +2962,101 @@
       <c r="G17" t="s">
         <v>15</v>
       </c>
-      <c r="J17" s="22" t="s">
-        <v>178</v>
-      </c>
       <c r="K17" s="14" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L17" s="14" t="s">
         <v>184</v>
       </c>
-      <c r="N17" t="s">
-        <v>219</v>
+      <c r="M17" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="N17" s="14" t="s">
+        <v>213</v>
+      </c>
+      <c r="O17" s="23" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B18">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="D18" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E18">
-        <v>3834579406</v>
+        <v>3834726914</v>
       </c>
       <c r="F18" t="s">
         <v>14</v>
       </c>
-      <c r="G18" t="s">
-        <v>15</v>
-      </c>
       <c r="K18" s="14" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="L18" s="14" t="s">
         <v>184</v>
       </c>
       <c r="M18" s="14" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="N18" s="14" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.2">
+        <v>217</v>
+      </c>
+      <c r="O18" s="25" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="B19">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C19" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="D19" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="E19">
-        <v>3834726914</v>
+        <v>3834013120</v>
       </c>
       <c r="F19" t="s">
         <v>14</v>
       </c>
+      <c r="G19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H19" t="s">
+        <v>162</v>
+      </c>
+      <c r="I19" s="14" t="s">
+        <v>171</v>
+      </c>
       <c r="K19" s="14" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L19" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="M19" s="14" t="s">
-        <v>207</v>
-      </c>
-      <c r="N19" s="14" t="s">
-        <v>217</v>
+        <v>183</v>
+      </c>
+      <c r="O19" s="23" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B20">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="D20" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="E20">
-        <v>3834013120</v>
+        <v>3835525551</v>
       </c>
       <c r="F20" t="s">
         <v>14</v>
@@ -2998,30 +3065,33 @@
         <v>15</v>
       </c>
       <c r="H20" t="s">
-        <v>162</v>
-      </c>
-      <c r="I20" s="14" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
       <c r="K20" s="14" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="L20" s="14" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.2">
+        <v>184</v>
+      </c>
+      <c r="N20" t="s">
+        <v>214</v>
+      </c>
+      <c r="O20" s="28" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="21" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="B21">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="D21" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="E21">
-        <v>3835525551</v>
+        <v>3834839598</v>
       </c>
       <c r="F21" t="s">
         <v>14</v>
@@ -3029,31 +3099,34 @@
       <c r="G21" t="s">
         <v>15</v>
       </c>
-      <c r="H21" t="s">
-        <v>155</v>
+      <c r="I21" t="s">
+        <v>163</v>
       </c>
       <c r="K21" s="14" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L21" s="14" t="s">
         <v>184</v>
       </c>
-      <c r="N21" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="M21" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="O21" s="23" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="22" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="B22">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C22" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D22" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="E22">
-        <v>3834839598</v>
+        <v>383492135</v>
       </c>
       <c r="F22" t="s">
         <v>14</v>
@@ -3061,11 +3134,11 @@
       <c r="G22" t="s">
         <v>15</v>
       </c>
-      <c r="I22" t="s">
-        <v>163</v>
+      <c r="H22" t="s">
+        <v>160</v>
       </c>
       <c r="K22" s="14" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="L22" s="14" t="s">
         <v>184</v>
@@ -3073,19 +3146,22 @@
       <c r="M22" s="14" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O22" s="23" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="23" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="B23">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C23" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="D23" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="E23">
-        <v>383492135</v>
+        <v>3816245762</v>
       </c>
       <c r="F23" t="s">
         <v>14</v>
@@ -3094,30 +3170,36 @@
         <v>15</v>
       </c>
       <c r="H23" t="s">
-        <v>160</v>
+        <v>162</v>
+      </c>
+      <c r="I23" t="s">
+        <v>172</v>
       </c>
       <c r="K23" s="14" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="L23" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="M23" s="14" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.2">
+        <v>183</v>
+      </c>
+      <c r="N23" t="s">
+        <v>220</v>
+      </c>
+      <c r="O23" s="23" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="24" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="B24">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C24" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="D24" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="E24">
-        <v>3816245762</v>
+        <v>3834983568</v>
       </c>
       <c r="F24" t="s">
         <v>14</v>
@@ -3128,31 +3210,31 @@
       <c r="H24" t="s">
         <v>162</v>
       </c>
-      <c r="I24" t="s">
-        <v>172</v>
-      </c>
       <c r="K24" s="14" t="s">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="L24" s="14" t="s">
-        <v>183</v>
-      </c>
-      <c r="N24" t="s">
-        <v>220</v>
+        <v>184</v>
+      </c>
+      <c r="M24" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="O24" s="23" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B25">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="D25" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="E25">
-        <v>3834983568</v>
+        <v>3834039752</v>
       </c>
       <c r="F25" t="s">
         <v>14</v>
@@ -3160,92 +3242,98 @@
       <c r="G25" t="s">
         <v>15</v>
       </c>
-      <c r="H25" t="s">
-        <v>162</v>
-      </c>
       <c r="K25" s="14" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="L25" s="14" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="M25" s="14" t="s">
-        <v>208</v>
+        <v>205</v>
+      </c>
+      <c r="O25" s="26" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B26">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="D26" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="E26">
-        <v>3834039752</v>
+        <v>3834326563</v>
       </c>
       <c r="F26" t="s">
         <v>14</v>
       </c>
-      <c r="G26" t="s">
-        <v>15</v>
+      <c r="H26" t="s">
+        <v>155</v>
+      </c>
+      <c r="I26" t="s">
+        <v>167</v>
       </c>
       <c r="K26" s="14" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="L26" s="14" t="s">
         <v>183</v>
       </c>
       <c r="M26" s="14" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+      <c r="O26" s="26" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="27" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="B27">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="D27" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="E27">
-        <v>3834326563</v>
+        <v>3834964896</v>
       </c>
       <c r="F27" t="s">
         <v>14</v>
       </c>
-      <c r="H27" t="s">
-        <v>155</v>
+      <c r="G27" t="s">
+        <v>15</v>
       </c>
       <c r="I27" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K27" s="14" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L27" s="14" t="s">
-        <v>183</v>
-      </c>
-      <c r="M27" s="14" t="s">
-        <v>210</v>
+        <v>184</v>
+      </c>
+      <c r="O27" s="23" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B28">
-        <v>26</v>
-      </c>
-      <c r="C28" t="s">
-        <v>143</v>
+        <v>27</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>47</v>
       </c>
       <c r="D28" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="E28">
-        <v>3834964896</v>
+        <v>3834591946</v>
       </c>
       <c r="F28" t="s">
         <v>14</v>
@@ -3253,101 +3341,88 @@
       <c r="G28" t="s">
         <v>15</v>
       </c>
-      <c r="I28" t="s">
-        <v>165</v>
+      <c r="H28" t="s">
+        <v>159</v>
       </c>
       <c r="K28" s="14" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="L28" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="O28" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.2">
+        <v>183</v>
+      </c>
+      <c r="O28" s="29" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="29" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="B29">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="D29" t="s">
-        <v>148</v>
-      </c>
-      <c r="E29">
-        <v>3834591946</v>
-      </c>
-      <c r="F29" t="s">
-        <v>14</v>
-      </c>
-      <c r="G29" t="s">
-        <v>15</v>
-      </c>
-      <c r="H29" t="s">
-        <v>159</v>
-      </c>
-      <c r="K29" s="14" t="s">
-        <v>189</v>
-      </c>
-      <c r="L29" s="14" t="s">
-        <v>183</v>
+        <v>190</v>
+      </c>
+      <c r="D29" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="O29" s="23" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B30">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D30" s="14" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.2">
+        <v>193</v>
+      </c>
+      <c r="K30" t="s">
+        <v>194</v>
+      </c>
+      <c r="L30" t="s">
+        <v>184</v>
+      </c>
+      <c r="N30" t="s">
+        <v>218</v>
+      </c>
+      <c r="O30" s="25" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="31" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="B31">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="D31" s="14" t="s">
-        <v>193</v>
-      </c>
-      <c r="K31" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="L31" t="s">
         <v>184</v>
       </c>
-      <c r="N31" t="s">
-        <v>218</v>
-      </c>
-      <c r="O31" t="s">
+      <c r="M31" t="s">
+        <v>202</v>
+      </c>
+      <c r="O31" s="23" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B32">
-        <v>30</v>
-      </c>
-      <c r="C32" s="14" t="s">
-        <v>200</v>
-      </c>
-      <c r="D32" s="14" t="s">
-        <v>201</v>
-      </c>
-      <c r="L32" t="s">
-        <v>184</v>
-      </c>
-      <c r="M32" t="s">
-        <v>202</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="B2:M2"/>
+  <autoFilter ref="B2:O31">
+    <filterColumn colId="13">
+      <filters blank="1">
+        <filter val="FALTA GRAFICO - CANTIDAD DE JUEGOS POR DESARROLLADOR"/>
+        <filter val="FALTA MOSTRAR PROYECTO FINAL"/>
+        <filter val="FALTA TERMINAR EL PROYECTO"/>
+        <filter val="FALTAN GRAFICOS"/>
+        <filter val="FALTAN GRAFICOS - RESOLVER QUERY EN EL MOTOR"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="1">
     <mergeCell ref="B1:F1"/>
   </mergeCells>
